--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -546,10 +546,10 @@
         <v>0.777496</v>
       </c>
       <c r="I2">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J2">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.357991666666667</v>
+        <v>6.174188000000001</v>
       </c>
       <c r="N2">
-        <v>25.073975</v>
+        <v>18.522564</v>
       </c>
       <c r="O2">
-        <v>0.3126408499929402</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="P2">
-        <v>0.3126408499929401</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="Q2">
-        <v>2.166101696288889</v>
+        <v>1.600135491082667</v>
       </c>
       <c r="R2">
-        <v>19.4949152666</v>
+        <v>14.401219419744</v>
       </c>
       <c r="S2">
-        <v>0.006054344821846597</v>
+        <v>0.02950752294224516</v>
       </c>
       <c r="T2">
-        <v>0.006054344821846594</v>
+        <v>0.02950752294224516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.777496</v>
       </c>
       <c r="I3">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J3">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.118224666666668</v>
+        <v>8.118224666666666</v>
       </c>
       <c r="N3">
         <v>24.354674</v>
       </c>
       <c r="O3">
-        <v>0.3036720735607722</v>
+        <v>0.331492458231255</v>
       </c>
       <c r="P3">
-        <v>0.3036720735607721</v>
+        <v>0.3314924582312551</v>
       </c>
       <c r="Q3">
-        <v>2.103962401811556</v>
+        <v>2.103962401811555</v>
       </c>
       <c r="R3">
         <v>18.935661616304</v>
       </c>
       <c r="S3">
-        <v>0.005880662895279346</v>
+        <v>0.03879841375124424</v>
       </c>
       <c r="T3">
-        <v>0.005880662895279345</v>
+        <v>0.03879841375124424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.777496</v>
       </c>
       <c r="I4">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J4">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.767896333333334</v>
+        <v>4.957885</v>
       </c>
       <c r="N4">
-        <v>14.303689</v>
+        <v>14.873655</v>
       </c>
       <c r="O4">
-        <v>0.1783489648926694</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="P4">
-        <v>0.1783489648926693</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="Q4">
-        <v>1.235673442527111</v>
+        <v>1.284911918653333</v>
       </c>
       <c r="R4">
-        <v>11.121060982744</v>
+        <v>11.56420726788</v>
       </c>
       <c r="S4">
-        <v>0.003453758944501385</v>
+        <v>0.02369459844476927</v>
       </c>
       <c r="T4">
-        <v>0.003453758944501385</v>
+        <v>0.02369459844476928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.777496</v>
       </c>
       <c r="I5">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J5">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.465969</v>
+        <v>1.245063666666667</v>
       </c>
       <c r="N5">
-        <v>4.397907</v>
+        <v>3.735191</v>
       </c>
       <c r="O5">
-        <v>0.05483635453373076</v>
+        <v>0.05083983659782346</v>
       </c>
       <c r="P5">
-        <v>0.05483635453373074</v>
+        <v>0.05083983659782347</v>
       </c>
       <c r="Q5">
-        <v>0.3799283445413333</v>
+        <v>0.3226773401928889</v>
       </c>
       <c r="R5">
-        <v>3.419355100872</v>
+        <v>2.904096061736</v>
       </c>
       <c r="S5">
-        <v>0.001061915610604737</v>
+        <v>0.00595037674731034</v>
       </c>
       <c r="T5">
-        <v>0.001061915610604736</v>
+        <v>0.005950376747310341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.777496</v>
       </c>
       <c r="I6">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="J6">
-        <v>0.01936517515859911</v>
+        <v>0.1170416182565993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.023442333333333</v>
+        <v>3.994561333333333</v>
       </c>
       <c r="N6">
-        <v>12.070327</v>
+        <v>11.983684</v>
       </c>
       <c r="O6">
-        <v>0.1505017570198876</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="P6">
-        <v>0.1505017570198875</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="Q6">
-        <v>1.042736773465778</v>
+        <v>1.035251819473778</v>
       </c>
       <c r="R6">
-        <v>9.384630961191998</v>
+        <v>9.317266375263999</v>
       </c>
       <c r="S6">
-        <v>0.002914492886367046</v>
+        <v>0.01909070637103028</v>
       </c>
       <c r="T6">
-        <v>0.002914492886367045</v>
+        <v>0.01909070637103029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H7">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I7">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J7">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.357991666666667</v>
+        <v>6.174188000000001</v>
       </c>
       <c r="N7">
-        <v>25.073975</v>
+        <v>18.522564</v>
       </c>
       <c r="O7">
-        <v>0.3126408499929402</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="P7">
-        <v>0.3126408499929401</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="Q7">
-        <v>33.37993816854167</v>
+        <v>10.54686936729733</v>
       </c>
       <c r="R7">
-        <v>300.419443516875</v>
+        <v>94.921824305676</v>
       </c>
       <c r="S7">
-        <v>0.09329832304296252</v>
+        <v>0.1944910237656311</v>
       </c>
       <c r="T7">
-        <v>0.09329832304296248</v>
+        <v>0.1944910237656311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H8">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I8">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J8">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.118224666666668</v>
+        <v>8.118224666666666</v>
       </c>
       <c r="N8">
         <v>24.354674</v>
       </c>
       <c r="O8">
-        <v>0.3036720735607722</v>
+        <v>0.331492458231255</v>
       </c>
       <c r="P8">
-        <v>0.3036720735607721</v>
+        <v>0.3314924582312551</v>
       </c>
       <c r="Q8">
-        <v>32.42236271811668</v>
+        <v>13.86771103401844</v>
       </c>
       <c r="R8">
-        <v>291.8012644630501</v>
+        <v>124.809399306166</v>
       </c>
       <c r="S8">
-        <v>0.09062185961571871</v>
+        <v>0.2557294702687056</v>
       </c>
       <c r="T8">
-        <v>0.09062185961571868</v>
+        <v>0.2557294702687056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H9">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I9">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J9">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.767896333333334</v>
+        <v>4.957885</v>
       </c>
       <c r="N9">
-        <v>14.303689</v>
+        <v>14.873655</v>
       </c>
       <c r="O9">
-        <v>0.1783489648926694</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="P9">
-        <v>0.1783489648926693</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="Q9">
-        <v>19.04190517865834</v>
+        <v>8.469156662071667</v>
       </c>
       <c r="R9">
-        <v>171.3771466079251</v>
+        <v>76.22240995864499</v>
       </c>
       <c r="S9">
-        <v>0.05322292125712295</v>
+        <v>0.1561766712257978</v>
       </c>
       <c r="T9">
-        <v>0.05322292125712294</v>
+        <v>0.1561766712257978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H10">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I10">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J10">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.465969</v>
+        <v>1.245063666666667</v>
       </c>
       <c r="N10">
-        <v>4.397907</v>
+        <v>3.735191</v>
       </c>
       <c r="O10">
-        <v>0.05483635453373076</v>
+        <v>0.05083983659782346</v>
       </c>
       <c r="P10">
-        <v>0.05483635453373074</v>
+        <v>0.05083983659782347</v>
       </c>
       <c r="Q10">
-        <v>5.854750342975001</v>
+        <v>2.126842241652111</v>
       </c>
       <c r="R10">
-        <v>52.69275308677501</v>
+        <v>19.141580174869</v>
       </c>
       <c r="S10">
-        <v>0.01636427203899287</v>
+        <v>0.03922033264672057</v>
       </c>
       <c r="T10">
-        <v>0.01636427203899286</v>
+        <v>0.03922033264672058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.993775000000001</v>
+        <v>1.708219666666666</v>
       </c>
       <c r="H11">
-        <v>11.981325</v>
+        <v>5.124658999999999</v>
       </c>
       <c r="I11">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="J11">
-        <v>0.2984201298233078</v>
+        <v>0.7714488336573383</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.023442333333333</v>
+        <v>3.994561333333333</v>
       </c>
       <c r="N11">
-        <v>12.070327</v>
+        <v>11.983684</v>
       </c>
       <c r="O11">
-        <v>0.1505017570198876</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="P11">
-        <v>0.1505017570198875</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="Q11">
-        <v>16.06872340480833</v>
+        <v>6.823588229306222</v>
       </c>
       <c r="R11">
-        <v>144.618510643275</v>
+        <v>61.41229406375599</v>
       </c>
       <c r="S11">
-        <v>0.04491275386851078</v>
+        <v>0.1258313357504832</v>
       </c>
       <c r="T11">
-        <v>0.04491275386851076</v>
+        <v>0.1258313357504832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H12">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I12">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J12">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.357991666666667</v>
+        <v>6.174188000000001</v>
       </c>
       <c r="N12">
-        <v>25.073975</v>
+        <v>18.522564</v>
       </c>
       <c r="O12">
-        <v>0.3126408499929402</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="P12">
-        <v>0.3126408499929401</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="Q12">
-        <v>2.674671559219444</v>
+        <v>0.7590711372213333</v>
       </c>
       <c r="R12">
-        <v>24.072044032975</v>
+        <v>6.831640234992001</v>
       </c>
       <c r="S12">
-        <v>0.007475818855801738</v>
+        <v>0.01399775776562503</v>
       </c>
       <c r="T12">
-        <v>0.007475818855801735</v>
+        <v>0.01399775776562503</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H13">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I13">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J13">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.118224666666668</v>
+        <v>8.118224666666666</v>
       </c>
       <c r="N13">
         <v>24.354674</v>
       </c>
       <c r="O13">
-        <v>0.3036720735607722</v>
+        <v>0.331492458231255</v>
       </c>
       <c r="P13">
-        <v>0.3036720735607721</v>
+        <v>0.3314924582312551</v>
       </c>
       <c r="Q13">
-        <v>2.597942842403778</v>
+        <v>0.998076189119111</v>
       </c>
       <c r="R13">
-        <v>23.381485581634</v>
+        <v>8.982685702071999</v>
       </c>
       <c r="S13">
-        <v>0.007261358883707285</v>
+        <v>0.01840516394559446</v>
       </c>
       <c r="T13">
-        <v>0.007261358883707282</v>
+        <v>0.01840516394559446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H14">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I14">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J14">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.767896333333334</v>
+        <v>4.957885</v>
       </c>
       <c r="N14">
-        <v>14.303689</v>
+        <v>14.873655</v>
       </c>
       <c r="O14">
-        <v>0.1783489648926694</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="P14">
-        <v>0.1783489648926693</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="Q14">
-        <v>1.525791987916556</v>
+        <v>0.6095356029266666</v>
       </c>
       <c r="R14">
-        <v>13.732127891249</v>
+        <v>5.485820426339999</v>
       </c>
       <c r="S14">
-        <v>0.004264652410865206</v>
+        <v>0.01124022677311184</v>
       </c>
       <c r="T14">
-        <v>0.004264652410865205</v>
+        <v>0.01124022677311184</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H15">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I15">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J15">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.465969</v>
+        <v>1.245063666666667</v>
       </c>
       <c r="N15">
-        <v>4.397907</v>
+        <v>3.735191</v>
       </c>
       <c r="O15">
-        <v>0.05483635453373076</v>
+        <v>0.05083983659782346</v>
       </c>
       <c r="P15">
-        <v>0.05483635453373074</v>
+        <v>0.05083983659782347</v>
       </c>
       <c r="Q15">
-        <v>0.4691301149096667</v>
+        <v>0.1530714473497778</v>
       </c>
       <c r="R15">
-        <v>4.222171034186999</v>
+        <v>1.377643026148</v>
       </c>
       <c r="S15">
-        <v>0.001311238288969438</v>
+        <v>0.002822735493117621</v>
       </c>
       <c r="T15">
-        <v>0.001311238288969437</v>
+        <v>0.002822735493117622</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3200136666666666</v>
+        <v>0.1229426666666667</v>
       </c>
       <c r="H16">
-        <v>0.9600409999999999</v>
+        <v>0.368828</v>
       </c>
       <c r="I16">
-        <v>0.02391184279332196</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="J16">
-        <v>0.02391184279332195</v>
+        <v>0.05552211970009493</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.023442333333333</v>
+        <v>3.994561333333333</v>
       </c>
       <c r="N16">
-        <v>12.070327</v>
+        <v>11.983684</v>
       </c>
       <c r="O16">
-        <v>0.1505017570198876</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="P16">
-        <v>0.1505017570198875</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="Q16">
-        <v>1.287556533711889</v>
+        <v>0.4911020224835556</v>
       </c>
       <c r="R16">
-        <v>11.588008803407</v>
+        <v>4.419918202352</v>
       </c>
       <c r="S16">
-        <v>0.003598774353978291</v>
+        <v>0.009056235722645979</v>
       </c>
       <c r="T16">
-        <v>0.003598774353978289</v>
+        <v>0.009056235722645979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H17">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I17">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J17">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.357991666666667</v>
+        <v>6.174188000000001</v>
       </c>
       <c r="N17">
-        <v>25.073975</v>
+        <v>18.522564</v>
       </c>
       <c r="O17">
-        <v>0.3126408499929402</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="P17">
-        <v>0.3126408499929401</v>
+        <v>0.2521113718502555</v>
       </c>
       <c r="Q17">
-        <v>73.6348064604361</v>
+        <v>0.7654326089240001</v>
       </c>
       <c r="R17">
-        <v>662.7132581439249</v>
+        <v>6.888893480316001</v>
       </c>
       <c r="S17">
-        <v>0.2058123632723294</v>
+        <v>0.01411506737675419</v>
       </c>
       <c r="T17">
-        <v>0.2058123632723293</v>
+        <v>0.01411506737675419</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H18">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I18">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J18">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.118224666666668</v>
+        <v>8.118224666666666</v>
       </c>
       <c r="N18">
         <v>24.354674</v>
       </c>
       <c r="O18">
-        <v>0.3036720735607722</v>
+        <v>0.331492458231255</v>
       </c>
       <c r="P18">
-        <v>0.3036720735607721</v>
+        <v>0.3314924582312551</v>
       </c>
       <c r="Q18">
-        <v>71.52243337552245</v>
+        <v>1.006440666600667</v>
       </c>
       <c r="R18">
-        <v>643.701900379702</v>
+        <v>9.057965999405999</v>
       </c>
       <c r="S18">
-        <v>0.1999081921660668</v>
+        <v>0.0185594102657107</v>
       </c>
       <c r="T18">
-        <v>0.1999081921660668</v>
+        <v>0.01855941026571071</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H19">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I19">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J19">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.767896333333334</v>
+        <v>4.957885</v>
       </c>
       <c r="N19">
-        <v>14.303689</v>
+        <v>14.873655</v>
       </c>
       <c r="O19">
-        <v>0.1783489648926694</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="P19">
-        <v>0.1783489648926693</v>
+        <v>0.2024459230632115</v>
       </c>
       <c r="Q19">
-        <v>42.00568004017189</v>
+        <v>0.614643877105</v>
       </c>
       <c r="R19">
-        <v>378.051120361547</v>
+        <v>5.531794893944999</v>
       </c>
       <c r="S19">
-        <v>0.1174076322801798</v>
+        <v>0.01133442661953263</v>
       </c>
       <c r="T19">
-        <v>0.1174076322801798</v>
+        <v>0.01133442661953263</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H20">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I20">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J20">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.465969</v>
+        <v>1.245063666666667</v>
       </c>
       <c r="N20">
-        <v>4.397907</v>
+        <v>3.735191</v>
       </c>
       <c r="O20">
-        <v>0.05483635453373076</v>
+        <v>0.05083983659782346</v>
       </c>
       <c r="P20">
-        <v>0.05483635453373074</v>
+        <v>0.05083983659782347</v>
       </c>
       <c r="Q20">
-        <v>12.91534472599566</v>
+        <v>0.1543542779476667</v>
       </c>
       <c r="R20">
-        <v>116.238102533961</v>
+        <v>1.389188501529</v>
       </c>
       <c r="S20">
-        <v>0.03609892859516372</v>
+        <v>0.002846391710674929</v>
       </c>
       <c r="T20">
-        <v>0.03609892859516371</v>
+        <v>0.002846391710674929</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.810107666666665</v>
+        <v>0.123973</v>
       </c>
       <c r="H21">
-        <v>26.430323</v>
+        <v>0.371919</v>
       </c>
       <c r="I21">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="J21">
-        <v>0.6583028522247711</v>
+        <v>0.05598742838596747</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.023442333333333</v>
+        <v>3.994561333333333</v>
       </c>
       <c r="N21">
-        <v>12.070327</v>
+        <v>11.983684</v>
       </c>
       <c r="O21">
-        <v>0.1505017570198876</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="P21">
-        <v>0.1505017570198875</v>
+        <v>0.1631104102574545</v>
       </c>
       <c r="Q21">
-        <v>35.44696014729121</v>
+        <v>0.4952177521773333</v>
       </c>
       <c r="R21">
-        <v>319.022641325621</v>
+        <v>4.456959769596</v>
       </c>
       <c r="S21">
-        <v>0.09907573591103147</v>
+        <v>0.009132132413295005</v>
       </c>
       <c r="T21">
-        <v>0.09907573591103143</v>
+        <v>0.009132132413295005</v>
       </c>
     </row>
   </sheetData>
